--- a/natmiOut/OldD4/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4448391053622</v>
+        <v>13.67599</v>
       </c>
       <c r="H2">
-        <v>11.4448391053622</v>
+        <v>41.02797</v>
       </c>
       <c r="I2">
-        <v>0.9213601412297492</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J2">
-        <v>0.9213601412297492</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.46350467573143</v>
+        <v>1.995795333333333</v>
       </c>
       <c r="N2">
-        <v>1.46350467573143</v>
+        <v>5.987386</v>
       </c>
       <c r="O2">
-        <v>0.02506643165473944</v>
+        <v>0.03246541069287896</v>
       </c>
       <c r="P2">
-        <v>0.02506643165473944</v>
+        <v>0.0423018942495388</v>
       </c>
       <c r="Q2">
-        <v>16.7495755436915</v>
+        <v>27.29447702071333</v>
       </c>
       <c r="R2">
-        <v>16.7495755436915</v>
+        <v>245.65029318642</v>
       </c>
       <c r="S2">
-        <v>0.02309521100953659</v>
+        <v>0.02987716535966984</v>
       </c>
       <c r="T2">
-        <v>0.02309521100953659</v>
+        <v>0.03937076780702577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4448391053622</v>
+        <v>13.67599</v>
       </c>
       <c r="H3">
-        <v>11.4448391053622</v>
+        <v>41.02797</v>
       </c>
       <c r="I3">
-        <v>0.9213601412297492</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J3">
-        <v>0.9213601412297492</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.0797375517426</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N3">
-        <v>15.0797375517426</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O3">
-        <v>0.258280835709151</v>
+        <v>0.2689695888660982</v>
       </c>
       <c r="P3">
-        <v>0.258280835709151</v>
+        <v>0.3504629346041594</v>
       </c>
       <c r="Q3">
-        <v>172.5851700307826</v>
+        <v>226.1294129935866</v>
       </c>
       <c r="R3">
-        <v>172.5851700307826</v>
+        <v>2035.16471694228</v>
       </c>
       <c r="S3">
-        <v>0.237969667265921</v>
+        <v>0.2475264816236399</v>
       </c>
       <c r="T3">
-        <v>0.237969667265921</v>
+        <v>0.3261791243171019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4448391053622</v>
+        <v>13.67599</v>
       </c>
       <c r="H4">
-        <v>11.4448391053622</v>
+        <v>41.02797</v>
       </c>
       <c r="I4">
-        <v>0.9213601412297492</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J4">
-        <v>0.9213601412297492</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>41.8418002025568</v>
+        <v>0.05109933333333333</v>
       </c>
       <c r="N4">
-        <v>41.8418002025568</v>
+        <v>0.153298</v>
       </c>
       <c r="O4">
-        <v>0.7166527326361096</v>
+        <v>0.0008312279396045215</v>
       </c>
       <c r="P4">
-        <v>0.7166527326361096</v>
+        <v>0.001083076284820421</v>
       </c>
       <c r="Q4">
-        <v>478.8726711969741</v>
+        <v>0.6988339716733333</v>
       </c>
       <c r="R4">
-        <v>478.8726711969741</v>
+        <v>6.289505745059999</v>
       </c>
       <c r="S4">
-        <v>0.6602952629542916</v>
+        <v>0.0007649598164051334</v>
       </c>
       <c r="T4">
-        <v>0.6602952629542916</v>
+        <v>0.001008029207283685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.478689423541983</v>
+        <v>13.67599</v>
       </c>
       <c r="H5">
-        <v>0.478689423541983</v>
+        <v>41.02797</v>
       </c>
       <c r="I5">
-        <v>0.03853661469764023</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J5">
-        <v>0.03853661469764023</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.46350467573143</v>
+        <v>0.008733333333333334</v>
       </c>
       <c r="N5">
-        <v>1.46350467573143</v>
+        <v>0.0262</v>
       </c>
       <c r="O5">
-        <v>0.02506643165473944</v>
+        <v>0.0001420642931912906</v>
       </c>
       <c r="P5">
-        <v>0.02506643165473944</v>
+        <v>0.0001851074290747108</v>
       </c>
       <c r="Q5">
-        <v>0.700564209576875</v>
+        <v>0.1194369793333333</v>
       </c>
       <c r="R5">
-        <v>0.700564209576875</v>
+        <v>1.074932814</v>
       </c>
       <c r="S5">
-        <v>0.0009659754185234264</v>
+        <v>0.0001307384779306612</v>
       </c>
       <c r="T5">
-        <v>0.0009659754185234264</v>
+        <v>0.0001722812119586202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.478689423541983</v>
+        <v>13.67599</v>
       </c>
       <c r="H6">
-        <v>0.478689423541983</v>
+        <v>41.02797</v>
       </c>
       <c r="I6">
-        <v>0.03853661469764023</v>
+        <v>0.9202768337756827</v>
       </c>
       <c r="J6">
-        <v>0.03853661469764023</v>
+        <v>0.9307093336004689</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.0797375517426</v>
+        <v>42.884111</v>
       </c>
       <c r="N6">
-        <v>15.0797375517426</v>
+        <v>85.76822200000001</v>
       </c>
       <c r="O6">
-        <v>0.258280835709151</v>
+        <v>0.6975917082082271</v>
       </c>
       <c r="P6">
-        <v>0.258280835709151</v>
+        <v>0.6059669874324066</v>
       </c>
       <c r="Q6">
-        <v>7.218510875808059</v>
+        <v>586.48267319489</v>
       </c>
       <c r="R6">
-        <v>7.218510875808059</v>
+        <v>3518.89603916934</v>
       </c>
       <c r="S6">
-        <v>0.009953269049508072</v>
+        <v>0.6419774884980372</v>
       </c>
       <c r="T6">
-        <v>0.009953269049508072</v>
+        <v>0.5639791310570988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.478689423541983</v>
+        <v>0.528683</v>
       </c>
       <c r="H7">
-        <v>0.478689423541983</v>
+        <v>1.586049</v>
       </c>
       <c r="I7">
-        <v>0.03853661469764023</v>
+        <v>0.03557583160787843</v>
       </c>
       <c r="J7">
-        <v>0.03853661469764023</v>
+        <v>0.03597912857613209</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.8418002025568</v>
+        <v>1.995795333333333</v>
       </c>
       <c r="N7">
-        <v>41.8418002025568</v>
+        <v>5.987386</v>
       </c>
       <c r="O7">
-        <v>0.7166527326361096</v>
+        <v>0.03246541069287896</v>
       </c>
       <c r="P7">
-        <v>0.7166527326361096</v>
+        <v>0.0423018942495388</v>
       </c>
       <c r="Q7">
-        <v>20.02922721892074</v>
+        <v>1.055143064212667</v>
       </c>
       <c r="R7">
-        <v>20.02922721892074</v>
+        <v>9.496287577914</v>
       </c>
       <c r="S7">
-        <v>0.02761737022960874</v>
+        <v>0.001154983983890478</v>
       </c>
       <c r="T7">
-        <v>0.02761737022960874</v>
+        <v>0.001521985292218099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.498149589368495</v>
+        <v>0.528683</v>
       </c>
       <c r="H8">
-        <v>0.498149589368495</v>
+        <v>1.586049</v>
       </c>
       <c r="I8">
-        <v>0.04010324407261055</v>
+        <v>0.03557583160787843</v>
       </c>
       <c r="J8">
-        <v>0.04010324407261055</v>
+        <v>0.03597912857613209</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.46350467573143</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N8">
-        <v>1.46350467573143</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O8">
-        <v>0.02506643165473944</v>
+        <v>0.2689695888660982</v>
       </c>
       <c r="P8">
-        <v>0.02506643165473944</v>
+        <v>0.3504629346041594</v>
       </c>
       <c r="Q8">
-        <v>0.7290442532544843</v>
+        <v>8.741654275097334</v>
       </c>
       <c r="R8">
-        <v>0.7290442532544843</v>
+        <v>78.67488847587602</v>
       </c>
       <c r="S8">
-        <v>0.001005245226679427</v>
+        <v>0.009568816801140603</v>
       </c>
       <c r="T8">
-        <v>0.001005245226679427</v>
+        <v>0.01260935098529163</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.498149589368495</v>
+        <v>0.528683</v>
       </c>
       <c r="H9">
-        <v>0.498149589368495</v>
+        <v>1.586049</v>
       </c>
       <c r="I9">
-        <v>0.04010324407261055</v>
+        <v>0.03557583160787843</v>
       </c>
       <c r="J9">
-        <v>0.04010324407261055</v>
+        <v>0.03597912857613209</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>15.0797375517426</v>
+        <v>0.05109933333333333</v>
       </c>
       <c r="N9">
-        <v>15.0797375517426</v>
+        <v>0.153298</v>
       </c>
       <c r="O9">
-        <v>0.258280835709151</v>
+        <v>0.0008312279396045215</v>
       </c>
       <c r="P9">
-        <v>0.258280835709151</v>
+        <v>0.001083076284820421</v>
       </c>
       <c r="Q9">
-        <v>7.51196506918525</v>
+        <v>0.02701534884466666</v>
       </c>
       <c r="R9">
-        <v>7.51196506918525</v>
+        <v>0.243138139602</v>
       </c>
       <c r="S9">
-        <v>0.01035789939372191</v>
+        <v>2.95716252071342E-05</v>
       </c>
       <c r="T9">
-        <v>0.01035789939372191</v>
+        <v>3.896814090931338E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.528683</v>
+      </c>
+      <c r="H10">
+        <v>1.586049</v>
+      </c>
+      <c r="I10">
+        <v>0.03557583160787843</v>
+      </c>
+      <c r="J10">
+        <v>0.03597912857613209</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.008733333333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.0262</v>
+      </c>
+      <c r="O10">
+        <v>0.0001420642931912906</v>
+      </c>
+      <c r="P10">
+        <v>0.0001851074290747108</v>
+      </c>
+      <c r="Q10">
+        <v>0.004617164866666667</v>
+      </c>
+      <c r="R10">
+        <v>0.0415544838</v>
+      </c>
+      <c r="S10">
+        <v>5.054055372065625E-06</v>
+      </c>
+      <c r="T10">
+        <v>6.660003991076274E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.528683</v>
+      </c>
+      <c r="H11">
+        <v>1.586049</v>
+      </c>
+      <c r="I11">
+        <v>0.03557583160787843</v>
+      </c>
+      <c r="J11">
+        <v>0.03597912857613209</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>42.884111</v>
+      </c>
+      <c r="N11">
+        <v>85.76822200000001</v>
+      </c>
+      <c r="O11">
+        <v>0.6975917082082271</v>
+      </c>
+      <c r="P11">
+        <v>0.6059669874324066</v>
+      </c>
+      <c r="Q11">
+        <v>22.672100455813</v>
+      </c>
+      <c r="R11">
+        <v>136.032602734878</v>
+      </c>
+      <c r="S11">
+        <v>0.02481740514226815</v>
+      </c>
+      <c r="T11">
+        <v>0.02180216415372198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.380209</v>
+      </c>
+      <c r="I12">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J12">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.995795333333333</v>
+      </c>
+      <c r="N12">
+        <v>5.987386</v>
+      </c>
+      <c r="O12">
+        <v>0.03246541069287896</v>
+      </c>
+      <c r="P12">
+        <v>0.0423018942495388</v>
+      </c>
+      <c r="Q12">
+        <v>0.2529397826304445</v>
+      </c>
+      <c r="R12">
+        <v>2.276458043674</v>
+      </c>
+      <c r="S12">
+        <v>0.000276873731852556</v>
+      </c>
+      <c r="T12">
+        <v>0.0003648515940988906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.380209</v>
+      </c>
+      <c r="I13">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J13">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.53477466666667</v>
+      </c>
+      <c r="N13">
+        <v>49.60432400000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2689695888660982</v>
+      </c>
+      <c r="P13">
+        <v>0.3504629346041594</v>
+      </c>
+      <c r="Q13">
+        <v>2.095556713746222</v>
+      </c>
+      <c r="R13">
+        <v>18.860010423716</v>
+      </c>
+      <c r="S13">
+        <v>0.002293844810056226</v>
+      </c>
+      <c r="T13">
+        <v>0.003022724221487952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.380209</v>
+      </c>
+      <c r="I14">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J14">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05109933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.153298</v>
+      </c>
+      <c r="O14">
+        <v>0.0008312279396045215</v>
+      </c>
+      <c r="P14">
+        <v>0.001083076284820421</v>
+      </c>
+      <c r="Q14">
+        <v>0.006476142142444444</v>
+      </c>
+      <c r="R14">
+        <v>0.058285279282</v>
+      </c>
+      <c r="S14">
+        <v>7.088934861646322E-06</v>
+      </c>
+      <c r="T14">
+        <v>9.341475507370284E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.380209</v>
+      </c>
+      <c r="I15">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J15">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.008733333333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.0262</v>
+      </c>
+      <c r="O15">
+        <v>0.0001420642931912906</v>
+      </c>
+      <c r="P15">
+        <v>0.0001851074290747108</v>
+      </c>
+      <c r="Q15">
+        <v>0.001106830644444445</v>
+      </c>
+      <c r="R15">
+        <v>0.009961475800000001</v>
+      </c>
+      <c r="S15">
+        <v>1.211562403783048E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.596541757186013E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1267363333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.380209</v>
+      </c>
+      <c r="I16">
+        <v>0.008528268269013033</v>
+      </c>
+      <c r="J16">
+        <v>0.008624946957378119</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>42.884111</v>
+      </c>
+      <c r="N16">
+        <v>85.76822200000001</v>
+      </c>
+      <c r="O16">
+        <v>0.6975917082082271</v>
+      </c>
+      <c r="P16">
+        <v>0.6059669874324066</v>
+      </c>
+      <c r="Q16">
+        <v>5.434974986399667</v>
+      </c>
+      <c r="R16">
+        <v>32.60984991839801</v>
+      </c>
+      <c r="S16">
+        <v>0.005949249229838822</v>
+      </c>
+      <c r="T16">
+        <v>0.00522643312452672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.029595</v>
+      </c>
+      <c r="H17">
+        <v>0.088785</v>
+      </c>
+      <c r="I17">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J17">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.995795333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.987386</v>
+      </c>
+      <c r="O17">
+        <v>0.03246541069287896</v>
+      </c>
+      <c r="P17">
+        <v>0.0423018942495388</v>
+      </c>
+      <c r="Q17">
+        <v>0.05906556289</v>
+      </c>
+      <c r="R17">
+        <v>0.53159006601</v>
+      </c>
+      <c r="S17">
+        <v>6.465453022555799E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.519879535221418E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.029595</v>
+      </c>
+      <c r="H18">
+        <v>0.088785</v>
+      </c>
+      <c r="I18">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J18">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.53477466666667</v>
+      </c>
+      <c r="N18">
+        <v>49.60432400000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2689695888660982</v>
+      </c>
+      <c r="P18">
+        <v>0.3504629346041594</v>
+      </c>
+      <c r="Q18">
+        <v>0.48934665626</v>
+      </c>
+      <c r="R18">
+        <v>4.404119906340001</v>
+      </c>
+      <c r="S18">
+        <v>0.0005356501594145378</v>
+      </c>
+      <c r="T18">
+        <v>0.0007058553848141621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.498149589368495</v>
-      </c>
-      <c r="H10">
-        <v>0.498149589368495</v>
-      </c>
-      <c r="I10">
-        <v>0.04010324407261055</v>
-      </c>
-      <c r="J10">
-        <v>0.04010324407261055</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>41.8418002025568</v>
-      </c>
-      <c r="N10">
-        <v>41.8418002025568</v>
-      </c>
-      <c r="O10">
-        <v>0.7166527326361096</v>
-      </c>
-      <c r="P10">
-        <v>0.7166527326361096</v>
-      </c>
-      <c r="Q10">
-        <v>20.84347558934228</v>
-      </c>
-      <c r="R10">
-        <v>20.84347558934228</v>
-      </c>
-      <c r="S10">
-        <v>0.02874009945220922</v>
-      </c>
-      <c r="T10">
-        <v>0.02874009945220922</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.029595</v>
+      </c>
+      <c r="H19">
+        <v>0.088785</v>
+      </c>
+      <c r="I19">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J19">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.05109933333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.153298</v>
+      </c>
+      <c r="O19">
+        <v>0.0008312279396045215</v>
+      </c>
+      <c r="P19">
+        <v>0.001083076284820421</v>
+      </c>
+      <c r="Q19">
+        <v>0.00151228477</v>
+      </c>
+      <c r="R19">
+        <v>0.01361056293</v>
+      </c>
+      <c r="S19">
+        <v>1.655381860217061E-06</v>
+      </c>
+      <c r="T19">
+        <v>2.181386823883366E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.029595</v>
+      </c>
+      <c r="H20">
+        <v>0.088785</v>
+      </c>
+      <c r="I20">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J20">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.008733333333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.0262</v>
+      </c>
+      <c r="O20">
+        <v>0.0001420642931912906</v>
+      </c>
+      <c r="P20">
+        <v>0.0001851074290747108</v>
+      </c>
+      <c r="Q20">
+        <v>0.000258463</v>
+      </c>
+      <c r="R20">
+        <v>0.002326167</v>
+      </c>
+      <c r="S20">
+        <v>2.829195732343997E-07</v>
+      </c>
+      <c r="T20">
+        <v>3.728185285244699E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.029595</v>
+      </c>
+      <c r="H21">
+        <v>0.088785</v>
+      </c>
+      <c r="I21">
+        <v>0.001991489676110565</v>
+      </c>
+      <c r="J21">
+        <v>0.002014065725984436</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>42.884111</v>
+      </c>
+      <c r="N21">
+        <v>85.76822200000001</v>
+      </c>
+      <c r="O21">
+        <v>0.6975917082082271</v>
+      </c>
+      <c r="P21">
+        <v>0.6059669874324066</v>
+      </c>
+      <c r="Q21">
+        <v>1.269155265045</v>
+      </c>
+      <c r="R21">
+        <v>7.614931590270001</v>
+      </c>
+      <c r="S21">
+        <v>0.001389246685037018</v>
+      </c>
+      <c r="T21">
+        <v>0.001220457340465651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4997305</v>
+      </c>
+      <c r="H22">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J22">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.995795333333333</v>
+      </c>
+      <c r="N22">
+        <v>5.987386</v>
+      </c>
+      <c r="O22">
+        <v>0.03246541069287896</v>
+      </c>
+      <c r="P22">
+        <v>0.0423018942495388</v>
+      </c>
+      <c r="Q22">
+        <v>0.9973597998243333</v>
+      </c>
+      <c r="R22">
+        <v>5.984158798946</v>
+      </c>
+      <c r="S22">
+        <v>0.001091733087240521</v>
+      </c>
+      <c r="T22">
+        <v>0.0009590907608438287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4997305</v>
+      </c>
+      <c r="H23">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J23">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.53477466666667</v>
+      </c>
+      <c r="N23">
+        <v>49.60432400000001</v>
+      </c>
+      <c r="O23">
+        <v>0.2689695888660982</v>
+      </c>
+      <c r="P23">
+        <v>0.3504629346041594</v>
+      </c>
+      <c r="Q23">
+        <v>8.262931211560666</v>
+      </c>
+      <c r="R23">
+        <v>49.577587269364</v>
+      </c>
+      <c r="S23">
+        <v>0.009044795471846822</v>
+      </c>
+      <c r="T23">
+        <v>0.007945879695463729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4997305</v>
+      </c>
+      <c r="H24">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J24">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05109933333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.153298</v>
+      </c>
+      <c r="O24">
+        <v>0.0008312279396045215</v>
+      </c>
+      <c r="P24">
+        <v>0.001083076284820421</v>
+      </c>
+      <c r="Q24">
+        <v>0.02553589539633333</v>
+      </c>
+      <c r="R24">
+        <v>0.153215372378</v>
+      </c>
+      <c r="S24">
+        <v>2.795218127039034E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.455607429616819E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4997305</v>
+      </c>
+      <c r="H25">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J25">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.008733333333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.0262</v>
+      </c>
+      <c r="O25">
+        <v>0.0001420642931912906</v>
+      </c>
+      <c r="P25">
+        <v>0.0001851074290747108</v>
+      </c>
+      <c r="Q25">
+        <v>0.004364313033333333</v>
+      </c>
+      <c r="R25">
+        <v>0.0261858782</v>
+      </c>
+      <c r="S25">
+        <v>4.777277911546315E-06</v>
+      </c>
+      <c r="T25">
+        <v>4.196852839303883E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4997305</v>
+      </c>
+      <c r="H26">
+        <v>0.9994609999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.03362757667131512</v>
+      </c>
+      <c r="J26">
+        <v>0.02267252514003638</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>42.884111</v>
+      </c>
+      <c r="N26">
+        <v>85.76822200000001</v>
+      </c>
+      <c r="O26">
+        <v>0.6975917082082271</v>
+      </c>
+      <c r="P26">
+        <v>0.6059669874324066</v>
+      </c>
+      <c r="Q26">
+        <v>21.4304982320855</v>
+      </c>
+      <c r="R26">
+        <v>85.721992928342</v>
+      </c>
+      <c r="S26">
+        <v>0.02345831865304585</v>
+      </c>
+      <c r="T26">
+        <v>0.01373880175659335</v>
       </c>
     </row>
   </sheetData>
